--- a/Lista de exercicios/Teste mesa.xlsx
+++ b/Lista de exercicios/Teste mesa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noite\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.diniz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F412FC-F134-4E7C-961E-01A8DB2ECA43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB9A673-923A-4341-85E2-6DC9314EEBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5865" xr2:uid="{FD503402-8206-47A0-AC6D-47896FB19304}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD503402-8206-47A0-AC6D-47896FB19304}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Anos</t>
   </si>
@@ -220,12 +231,57 @@
   </si>
   <si>
     <t>tempo</t>
+  </si>
+  <si>
+    <t>Exercício 15</t>
+  </si>
+  <si>
+    <t>horas trabalhadas no mês</t>
+  </si>
+  <si>
+    <t>Salario por hora</t>
+  </si>
+  <si>
+    <t>Salario total</t>
+  </si>
+  <si>
+    <t>gasto janeiro</t>
+  </si>
+  <si>
+    <t>gasto fevereiro</t>
+  </si>
+  <si>
+    <t>gasto março</t>
+  </si>
+  <si>
+    <t>gasto total</t>
+  </si>
+  <si>
+    <t>media de gastos</t>
+  </si>
+  <si>
+    <t>Exercicio 17</t>
+  </si>
+  <si>
+    <t>Exercício 16</t>
+  </si>
+  <si>
+    <t>nota 1</t>
+  </si>
+  <si>
+    <t>nota 2</t>
+  </si>
+  <si>
+    <t>nota 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -420,6 +476,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,9 +499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -479,7 +539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -585,7 +645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -727,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,21 +795,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E64E25A-5018-4FEF-843D-D8F110ED7846}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -757,7 +817,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -771,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -786,8 +846,8 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -798,7 +858,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -821,7 +881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -847,15 +907,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -866,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1000</v>
       </c>
@@ -878,8 +938,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -887,7 +947,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -901,7 +961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>100</v>
       </c>
@@ -916,8 +976,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
@@ -926,7 +986,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -943,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1000</v>
       </c>
@@ -961,14 +1021,14 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -976,7 +1036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>212</v>
       </c>
@@ -985,15 +1045,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>11</v>
       </c>
@@ -1017,15 +1077,15 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -1036,7 +1096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1049,15 +1109,15 @@
         <v>F</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -1068,7 +1128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>12</v>
       </c>
@@ -1081,8 +1141,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
@@ -1090,7 +1150,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -1104,7 +1164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -1120,8 +1180,8 @@
         <v>REPROVADO</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
@@ -1129,7 +1189,7 @@
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
@@ -1143,7 +1203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2025</v>
       </c>
@@ -1159,15 +1219,15 @@
         <v>NÃO PODE VOTAR</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
@@ -1178,7 +1238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>10</v>
       </c>
@@ -1190,8 +1250,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>56</v>
       </c>
@@ -1199,7 +1259,7 @@
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
@@ -1213,7 +1273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -1229,15 +1289,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1248,7 +1308,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>12</v>
       </c>
@@ -1260,8 +1320,130 @@
         <v>24</v>
       </c>
     </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>161</v>
+      </c>
+      <c r="B59" s="3">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2">
+        <f>IF(A59&gt;160,A59*B59+(((A59-160)*B59)*1.5)-((A59-160)*B59),A59*B59)</f>
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="17">
+        <v>15000</v>
+      </c>
+      <c r="B63" s="18">
+        <v>23000</v>
+      </c>
+      <c r="C63" s="19">
+        <v>17000</v>
+      </c>
+      <c r="D63" s="18">
+        <f>AVERAGE(A63:C63)</f>
+        <v>18333.333333333332</v>
+      </c>
+      <c r="E63" s="20">
+        <f>SUM(A63:C63)</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3">
+        <v>8</v>
+      </c>
+      <c r="C67" s="3">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2">
+        <f>AVERAGE(A67:C67)</f>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A49:D49"/>
@@ -1271,11 +1453,6 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
